--- a/src/main/resources/170-microservices-event-sourcing/shopping-cart-service_structure.xlsx
+++ b/src/main/resources/170-microservices-event-sourcing/shopping-cart-service_structure.xlsx
@@ -259,7 +259,7 @@
     <t>org.springframework.web.client.RestTemplate</t>
   </si>
   <si>
-    <t>loadBalancedOauth2RestTemplate(org.springframework.security.oauth2.client.resource.OAuth2ProtectedResourceDetails)</t>
+    <t>loadBalancedOauth2RestTemplate(org.springframework.security.oauth2.client.resource.OAuth2ProtectedResourceDetails,org.springframework.security.oauth2.client.OAuth2ClientContext)</t>
   </si>
   <si>
     <t>org.springframework.security.oauth2.client.OAuth2RestTemplate</t>
